--- a/biology/Zoologie/Eurytides_iphitas/Eurytides_iphitas.xlsx
+++ b/biology/Zoologie/Eurytides_iphitas/Eurytides_iphitas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytides iphitas est un insecte lépidoptère de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Eurytides.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytides iphitas a été décrit par Jacob Hübner en 1821.
-Synonyme : Papilio iphitas ; Rothschild &amp; Jordan, 1906[1].
-Nom vernaculaire
-Eurytides iphitas se nomme Yellow Kite en anglais[1].
+Synonyme : Papilio iphitas ; Rothschild &amp; Jordan, 1906.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurytides iphitas est un grand papillon au corps noir, aux ailes antérieures à bord externe concave et ailes postérieures à longue queue très fine. Le dessus est de couleur jaune très pâle veiné de noir avec aux ailes antérieures une large bordure marginale et un apex noirs et deux bandes, l'une du  bord costal au milieu du bord externe et l'autre le long du bord costal. Les postérieures présentent une large bordure noire comme la fine queue.
-Le revers est nacré avec une ornementation semblable.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides iphitas se nomme Yellow Kite en anglais.
 </t>
         </is>
       </c>
@@ -574,10 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides iphitas est un grand papillon au corps noir, aux ailes antérieures à bord externe concave et ailes postérieures à longue queue très fine. Le dessus est de couleur jaune très pâle veiné de noir avec aux ailes antérieures une large bordure marginale et un apex noirs et deux bandes, l'une du  bord costal au milieu du bord externe et l'autre le long du bord costal. Les postérieures présentent une large bordure noire comme la fine queue.
+Le revers est nacré avec une ornementation semblable.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,17 +625,81 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurytides_iphitas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_iphitas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurytides iphitas rest présent dans le sud-est du Brésil[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides iphitas rest présent dans le sud-est du Brésil.
 Sur les autres projets Wikimedia :
 Eurytides iphitas, sur Wikimedia CommonsEurytides iphitas, sur Wikispecies
-Biotope
-Protection
-Eurytides iphitas est inscrit vulnérable sur le Red Data Book[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurytides_iphitas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_iphitas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides iphitas est inscrit vulnérable sur le Red Data Book.
 </t>
         </is>
       </c>
